--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1499,16 +1499,16 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -953,10 +953,10 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2.5</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1499,28 +1499,28 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
         <v>9</v>
@@ -1553,7 +1553,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1571,7 +1571,7 @@
         <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN6" t="n">
         <v>4.5</v>
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
         <v>3.75</v>
@@ -971,13 +971,13 @@
         <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
@@ -1016,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
@@ -1028,7 +1028,7 @@
         <v>1250</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
@@ -1058,13 +1058,13 @@
         <v>4.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -762,7 +762,7 @@
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -789,10 +789,10 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -804,7 +804,7 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -846,13 +846,13 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -867,10 +867,10 @@
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
         <v>5.5</v>
@@ -879,7 +879,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
         <v>81</v>
@@ -1317,16 +1317,16 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -2406,7 +2406,7 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -2415,10 +2415,10 @@
         <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2585,10 +2585,10 @@
         <v>8.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2597,10 +2597,10 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
         <v>2.75</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -2221,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
         <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
@@ -2221,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>
@@ -2281,7 +2281,7 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
@@ -2290,13 +2290,13 @@
         <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
         <v>201</v>
@@ -2332,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
@@ -2341,7 +2341,7 @@
         <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2717,6 +2717,370 @@
         <v>51</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GEwK0Qcc</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4QWYxN5j</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -762,7 +762,7 @@
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -789,22 +789,22 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -846,13 +846,13 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -867,10 +867,10 @@
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>5.5</v>
@@ -879,7 +879,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
         <v>2.7</v>
@@ -2263,7 +2263,7 @@
         <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2296,7 +2296,7 @@
         <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM10" t="n">
         <v>201</v>
@@ -2308,13 +2308,13 @@
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>
@@ -2332,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
@@ -2341,7 +2341,7 @@
         <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
         <v>351</v>
@@ -2749,40 +2749,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.25</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="K13" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="L13" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>6.95</v>
+        <v>7.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>2.57</v>
+        <v>2.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
         <v>1.47</v>
@@ -2791,106 +2791,106 @@
         <v>2.32</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="V13" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="W13" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="X13" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.75</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
         <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>201</v>
+        <v>800</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY13" t="n">
         <v>35</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>37</v>
       </c>
       <c r="AZ13" t="n">
         <v>175</v>
       </c>
       <c r="BA13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB13" t="n">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2773,10 +2773,10 @@
         <v>7.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q13" t="n">
         <v>1.93</v>
@@ -2791,31 +2791,31 @@
         <v>2.32</v>
       </c>
       <c r="U13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
         <v>1.72</v>
       </c>
       <c r="W13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Y13" t="n">
         <v>8.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA13" t="n">
         <v>14</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD13" t="n">
         <v>6.9</v>
@@ -2827,31 +2827,31 @@
         <v>90</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>100</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN13" t="n">
         <v>3.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AP13" t="n">
         <v>17</v>
@@ -2875,22 +2875,22 @@
         <v>70</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AX13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY13" t="n">
         <v>35</v>
       </c>
       <c r="AZ13" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB13" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2943,22 +2943,22 @@
         <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="M14" t="n">
-        <v>8.300000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.05</v>
+        <v>8.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q14" t="n">
         <v>1.91</v>
@@ -2970,16 +2970,16 @@
         <v>1.39</v>
       </c>
       <c r="T14" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U14" t="n">
         <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X14" t="n">
         <v>17</v>
@@ -3000,7 +3000,7 @@
         <v>10.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -3021,7 +3021,7 @@
         <v>17.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL14" t="n">
         <v>28</v>
@@ -3042,7 +3042,7 @@
         <v>90</v>
       </c>
       <c r="AR14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS14" t="n">
         <v>350</v>
@@ -3063,7 +3063,7 @@
         <v>10.25</v>
       </c>
       <c r="AY14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ14" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,13 +1126,13 @@
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1186,13 +1186,13 @@
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1231,10 +1231,10 @@
         <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>5.5</v>
@@ -1243,7 +1243,7 @@
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
         <v>81</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1490,7 +1490,7 @@
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1511,10 +1511,10 @@
         <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
         <v>1.7</v>
@@ -1571,7 +1571,7 @@
         <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN6" t="n">
         <v>4.5</v>
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YNeegDWH</t>
+          <t>GEwK0Qcc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2553,162 +2553,162 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Rayo Zuliano</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>9.5</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L12" t="n">
-        <v>8.5</v>
+        <v>5.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AL12" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AX12" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AY12" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AZ12" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="BA12" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="BB12" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GEwK0Qcc</t>
+          <t>4QWYxN5j</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,344 +2740,162 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>2.32</v>
       </c>
       <c r="J13" t="n">
-        <v>2.15</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>5.2</v>
+        <v>2.95</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="n">
         <v>7.8</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X13" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AD13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AX13" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA13" t="n">
         <v>90</v>
       </c>
-      <c r="AG13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>250</v>
-      </c>
       <c r="BB13" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4QWYxN5j</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>11/10/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X14" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>75</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1660,19 +1660,19 @@
         <v>2.22</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
         <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1696,19 +1696,19 @@
         <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1717,58 +1717,58 @@
         <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>45</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
         <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN7" t="n">
         <v>4.05</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>45</v>
       </c>
       <c r="AR7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
@@ -1777,7 +1777,7 @@
         <v>2.47</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
@@ -1786,10 +1786,10 @@
         <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
         <v>90</v>
@@ -1798,7 +1798,7 @@
         <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1869,16 +1869,16 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1899,7 +1899,7 @@
         <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1917,16 +1917,16 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
         <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
@@ -1944,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1956,10 +1956,10 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GEwK0Qcc</t>
+          <t>YNeegDWH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2553,162 +2553,162 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="I12" t="n">
-        <v>5.1</v>
+        <v>9.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="K12" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>5.2</v>
+        <v>8.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.32</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI12" t="n">
         <v>29</v>
       </c>
-      <c r="AC12" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AK12" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AR12" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AY12" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="BA12" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="BB12" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,182 +2720,364 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>GEwK0Qcc</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>4QWYxN5j</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>11/10/2024</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>21:30</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Zamora</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Monagas</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>3.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="H14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
         <v>1.02</v>
       </c>
-      <c r="N13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="N14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.37</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P14" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.07</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R14" t="n">
         <v>1.6</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S14" t="n">
         <v>1.42</v>
       </c>
-      <c r="T13" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="T14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.78</v>
       </c>
-      <c r="V13" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="V14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W14" t="n">
         <v>8.75</v>
       </c>
-      <c r="X13" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="X14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y14" t="n">
         <v>10.75</v>
       </c>
-      <c r="Z13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="Z14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA14" t="n">
         <v>28</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB14" t="n">
         <v>37</v>
       </c>
-      <c r="AC13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AC14" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE14" t="n">
         <v>14</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF14" t="n">
         <v>70</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG14" t="n">
         <v>6.8</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH14" t="n">
         <v>10.75</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI14" t="n">
         <v>9.25</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AJ14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY14" t="n">
         <v>21</v>
       </c>
-      <c r="AL13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AZ14" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB14" t="n">
         <v>300</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2209,10 +2209,10 @@
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
@@ -2221,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>
@@ -2263,7 +2263,7 @@
         <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2290,7 +2290,7 @@
         <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
@@ -2308,13 +2308,13 @@
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2209,10 +2209,10 @@
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
@@ -2263,7 +2263,7 @@
         <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2290,7 +2290,7 @@
         <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
@@ -2308,13 +2308,13 @@
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2209,10 +2209,10 @@
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
@@ -2263,7 +2263,7 @@
         <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2290,7 +2290,7 @@
         <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
@@ -2308,13 +2308,13 @@
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
         <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5.1</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2791,13 +2791,13 @@
         <v>2.57</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
         <v>7.3</v>
@@ -2806,58 +2806,58 @@
         <v>8.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB13" t="n">
         <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AE13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>90</v>
       </c>
       <c r="AK13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL13" t="n">
         <v>55</v>
       </c>
-      <c r="AL13" t="n">
-        <v>60</v>
-      </c>
       <c r="AM13" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR13" t="n">
         <v>60</v>
@@ -2866,31 +2866,31 @@
         <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AV13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AX13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ13" t="n">
         <v>175</v>
       </c>
       <c r="BA13" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB13" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1869,16 +1869,16 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1887,22 +1887,22 @@
         <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
         <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1923,10 +1923,10 @@
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
@@ -1938,7 +1938,7 @@
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
         <v>17</v>
@@ -1956,25 +1956,25 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
         <v>67</v>
@@ -2388,37 +2388,37 @@
         <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2427,16 +2427,16 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2445,13 +2445,13 @@
         <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2463,13 +2463,13 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
         <v>41</v>
@@ -2481,7 +2481,7 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
@@ -2496,19 +2496,19 @@
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
         <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
         <v>5.5</v>
@@ -2517,7 +2517,7 @@
         <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
         <v>67</v>
@@ -2526,7 +2526,7 @@
         <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
         <v>2.25</v>
@@ -2597,10 +2597,10 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2627,13 +2627,13 @@
         <v>8.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>8.5</v>
@@ -2645,19 +2645,19 @@
         <v>101</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
         <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL12" t="n">
         <v>81</v>
@@ -2669,7 +2669,7 @@
         <v>3.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
@@ -2705,7 +2705,7 @@
         <v>251</v>
       </c>
       <c r="BA12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB12" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1129,40 +1129,40 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1192,7 +1192,7 @@
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1201,10 +1201,10 @@
         <v>41</v>
       </c>
       <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
         <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>201</v>
@@ -1216,7 +1216,7 @@
         <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1228,7 +1228,7 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1887,16 +1887,16 @@
         <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
         <v>26</v>
@@ -1923,10 +1923,10 @@
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
@@ -1938,7 +1938,7 @@
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
         <v>17</v>
@@ -1959,7 +1959,7 @@
         <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1968,13 +1968,13 @@
         <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>67</v>
@@ -2567,34 +2567,34 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
         <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>
@@ -2645,7 +2645,7 @@
         <v>101</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>41</v>
@@ -2702,7 +2702,7 @@
         <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA12" t="n">
         <v>251</v>
@@ -2949,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
         <v>1.37</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2045,16 +2045,16 @@
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2069,7 +2069,7 @@
         <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -2081,7 +2081,7 @@
         <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
@@ -2108,7 +2108,7 @@
         <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -2132,7 +2132,7 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>201</v>
@@ -2150,7 +2150,7 @@
         <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
@@ -1854,7 +1854,7 @@
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1890,7 +1890,7 @@
         <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
@@ -1899,10 +1899,10 @@
         <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1920,7 +1920,7 @@
         <v>7.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>10</v>
@@ -1944,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX8" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>5.5</v>
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
         <v>2.25</v>
@@ -1135,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -1317,16 +1317,16 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
@@ -2415,10 +2415,10 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2427,28 +2427,28 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -2469,7 +2469,7 @@
         <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
         <v>41</v>
@@ -2481,13 +2481,13 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2508,7 +2508,7 @@
         <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
         <v>5.5</v>
@@ -2517,7 +2517,7 @@
         <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
         <v>67</v>
@@ -2585,10 +2585,10 @@
         <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2403,10 +2403,10 @@
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2415,10 +2415,10 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2209,34 +2209,34 @@
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
         <v>1.62</v>
@@ -2263,7 +2263,7 @@
         <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2278,7 +2278,7 @@
         <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG10" t="n">
         <v>7.5</v>
@@ -2290,7 +2290,7 @@
         <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
@@ -2308,13 +2308,13 @@
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1135,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1192,7 +1192,7 @@
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1201,13 +1201,13 @@
         <v>41</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
@@ -2221,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.57</v>
@@ -2251,19 +2251,19 @@
         <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2275,16 +2275,16 @@
         <v>5.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
         <v>7.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2317,7 +2317,7 @@
         <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT10" t="n">
         <v>2.2</v>
@@ -2329,10 +2329,10 @@
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
@@ -2341,7 +2341,7 @@
         <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1135,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -2567,34 +2567,34 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
         <v>8</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>
@@ -2615,7 +2615,7 @@
         <v>1.5</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X12" t="n">
         <v>5.5</v>
@@ -2645,19 +2645,19 @@
         <v>101</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
         <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="n">
         <v>81</v>
@@ -2702,10 +2702,10 @@
         <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB12" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1857,10 +1857,10 @@
         <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1869,10 +1869,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -2573,16 +2573,16 @@
         <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
         <v>1.95</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2621,10 +2621,10 @@
         <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
         <v>15</v>
@@ -2669,7 +2669,7 @@
         <v>3.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
@@ -2693,7 +2693,7 @@
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX12" t="n">
         <v>41</v>
@@ -2755,16 +2755,16 @@
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="J13" t="n">
         <v>2.25</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2800,7 +2800,7 @@
         <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Y13" t="n">
         <v>8.25</v>
@@ -2830,7 +2830,7 @@
         <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
         <v>15.5</v>
@@ -2854,7 +2854,7 @@
         <v>8.25</v>
       </c>
       <c r="AP13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>28</v>
@@ -2866,13 +2866,13 @@
         <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU13" t="n">
         <v>7.3</v>
       </c>
       <c r="AV13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW13" t="n">
         <v>6.4</v>
@@ -2881,10 +2881,10 @@
         <v>27</v>
       </c>
       <c r="AY13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ13" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BA13" t="n">
         <v>175</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
@@ -1129,10 +1129,10 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1147,16 +1147,16 @@
         <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1192,7 +1192,7 @@
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1216,7 +1216,7 @@
         <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1228,7 +1228,7 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -2415,10 +2415,10 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2585,10 +2585,10 @@
         <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2597,10 +2597,10 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
@@ -2251,19 +2251,19 @@
         <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
         <v>11</v>
       </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
       <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
         <v>26</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>29</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2275,16 +2275,16 @@
         <v>5.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG10" t="n">
         <v>7.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2341,7 +2341,7 @@
         <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -947,10 +947,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -1016,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
@@ -1028,7 +1028,7 @@
         <v>1250</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1159,7 +1159,7 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
         <v>8.5</v>
@@ -1192,7 +1192,7 @@
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -2931,40 +2931,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="H14" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
         <v>1.98</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
         <v>2.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
         <v>1.42</v>
@@ -2979,25 +2979,25 @@
         <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AA14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AB14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
         <v>5.7</v>
@@ -3009,19 +3009,19 @@
         <v>70</v>
       </c>
       <c r="AG14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
         <v>35</v>
@@ -3030,25 +3030,25 @@
         <v>600</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS14" t="n">
         <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU14" t="n">
         <v>6.7</v>
@@ -3057,19 +3057,19 @@
         <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ14" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BA14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB14" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1660,19 +1660,19 @@
         <v>2.22</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
         <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1681,13 +1681,13 @@
         <v>7.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
         <v>1.62</v>
@@ -1696,19 +1696,19 @@
         <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1720,40 +1720,40 @@
         <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
         <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ7" t="n">
         <v>45</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
         <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN7" t="n">
         <v>4.05</v>
@@ -1774,22 +1774,22 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ7" t="n">
         <v>90</v>
@@ -1798,7 +1798,7 @@
         <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1869,10 +1869,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1666,13 +1666,13 @@
         <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1705,7 +1705,7 @@
         <v>1.82</v>
       </c>
       <c r="W7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X7" t="n">
         <v>10.25</v>
@@ -1717,28 +1717,28 @@
         <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>11.25</v>
@@ -1747,28 +1747,28 @@
         <v>45</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
         <v>4.05</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
@@ -1783,19 +1783,19 @@
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB7" t="n">
         <v>300</v>
@@ -2209,13 +2209,13 @@
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
@@ -2227,16 +2227,16 @@
         <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
         <v>1.62</v>
@@ -2254,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -2278,7 +2278,7 @@
         <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
         <v>7.5</v>
@@ -2317,7 +2317,7 @@
         <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
         <v>2.2</v>
@@ -2341,7 +2341,7 @@
         <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
         <v>351</v>
@@ -2403,10 +2403,10 @@
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2415,10 +2415,10 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2755,16 +2755,16 @@
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K13" t="n">
         <v>2.12</v>
       </c>
       <c r="L13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2776,7 +2776,7 @@
         <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Q13" t="n">
         <v>1.93</v>
@@ -2797,10 +2797,10 @@
         <v>1.75</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y13" t="n">
         <v>8.25</v>
@@ -2809,10 +2809,10 @@
         <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>8.75</v>
@@ -2821,46 +2821,46 @@
         <v>6.7</v>
       </c>
       <c r="AE13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ13" t="n">
         <v>90</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR13" t="n">
         <v>55</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>60</v>
       </c>
       <c r="AS13" t="n">
         <v>250</v>
@@ -2869,28 +2869,28 @@
         <v>2.55</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW13" t="n">
         <v>6.4</v>
       </c>
       <c r="AX13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ13" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA13" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB13" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -747,88 +747,88 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.1</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -849,28 +849,28 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
         <v>5.5</v>
@@ -879,13 +879,13 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -1016,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
@@ -1028,7 +1028,7 @@
         <v>1250</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1153,22 +1153,22 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
@@ -1177,28 +1177,28 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1210,10 +1210,10 @@
         <v>900</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1225,31 +1225,31 @@
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
         <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1517,28 +1517,28 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1553,40 +1553,40 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
         <v>10</v>
       </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>151</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
@@ -1601,16 +1601,16 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
         <v>67</v>
@@ -1660,55 +1660,55 @@
         <v>2.22</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J7" t="n">
         <v>2.82</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1723,43 +1723,43 @@
         <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AE7" t="n">
         <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
         <v>9.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
         <v>37</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN7" t="n">
         <v>4.05</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP7" t="n">
         <v>20</v>
@@ -1768,31 +1768,31 @@
         <v>50</v>
       </c>
       <c r="AR7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA7" t="n">
         <v>110</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1869,16 +1869,16 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1887,19 +1887,19 @@
         <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1917,19 +1917,19 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
@@ -1938,10 +1938,10 @@
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -1950,13 +1950,13 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -1965,19 +1965,19 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
         <v>201</v>
@@ -2021,52 +2021,52 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -2081,13 +2081,13 @@
         <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2117,7 +2117,7 @@
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN9" t="n">
         <v>4.5</v>
@@ -2132,16 +2132,16 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
@@ -2153,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.14</v>
@@ -2227,16 +2227,16 @@
         <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
         <v>1.62</v>
@@ -2254,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -2263,7 +2263,7 @@
         <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2278,7 +2278,7 @@
         <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG10" t="n">
         <v>7.5</v>
@@ -2287,10 +2287,10 @@
         <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
@@ -2308,7 +2308,7 @@
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -2329,10 +2329,10 @@
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
@@ -2341,7 +2341,7 @@
         <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
         <v>351</v>
@@ -2388,55 +2388,55 @@
         <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
         <v>8</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7</v>
-      </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2445,25 +2445,25 @@
         <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
@@ -2475,37 +2475,37 @@
         <v>41</v>
       </c>
       <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
         <v>34</v>
       </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
       <c r="AM11" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2514,19 +2514,19 @@
         <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2567,115 +2567,115 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
+        <v>12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L12" t="n">
         <v>10</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.95</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>9</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.44</v>
       </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X12" t="n">
         <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
         <v>101</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM12" t="n">
         <v>201</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2684,28 +2684,28 @@
         <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV12" t="n">
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY12" t="n">
         <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BA12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB12" t="n">
         <v>501</v>
@@ -2749,88 +2749,88 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
         <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC13" t="n">
         <v>7.8</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AD13" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
         <v>16</v>
@@ -2842,55 +2842,55 @@
         <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AR13" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AS13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AV13" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AX13" t="n">
         <v>28</v>
       </c>
       <c r="AY13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ13" t="n">
         <v>175</v>
       </c>
       <c r="BA13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB13" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I14" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>1.98</v>
       </c>
       <c r="L14" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2955,28 +2955,28 @@
         <v>6.95</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
         <v>2.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U14" t="n">
         <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W14" t="n">
         <v>8.25</v>
@@ -2985,19 +2985,19 @@
         <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
         <v>37</v>
       </c>
       <c r="AA14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
         <v>5.7</v>
@@ -3006,22 +3006,22 @@
         <v>14</v>
       </c>
       <c r="AF14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AH14" t="n">
         <v>11.75</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
         <v>35</v>
@@ -3030,46 +3030,46 @@
         <v>600</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT14" t="n">
         <v>2.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV14" t="n">
         <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB14" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -977,10 +977,10 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
@@ -1007,7 +1007,7 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
@@ -1016,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
@@ -1028,10 +1028,10 @@
         <v>1250</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1040,7 +1040,7 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
         <v>301</v>
@@ -1058,13 +1058,13 @@
         <v>4.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
@@ -1135,10 +1135,10 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1147,16 +1147,16 @@
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
         <v>5</v>
@@ -1165,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
@@ -1177,31 +1177,31 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1228,7 +1228,7 @@
         <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1237,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
         <v>29</v>
@@ -1249,7 +1249,7 @@
         <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1660,19 +1660,19 @@
         <v>2.22</v>
       </c>
       <c r="H7" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1681,16 +1681,16 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
         <v>1.42</v>
@@ -1699,16 +1699,16 @@
         <v>2.47</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1717,88 +1717,88 @@
         <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>5.8</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AL7" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AM7" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN7" t="n">
         <v>4.05</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AX7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA7" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1845,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
@@ -2758,10 +2758,10 @@
         <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L13" t="n">
         <v>5.1</v>
@@ -2797,10 +2797,10 @@
         <v>1.65</v>
       </c>
       <c r="W13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
@@ -2809,13 +2809,13 @@
         <v>13.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB13" t="n">
         <v>35</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2824,13 +2824,13 @@
         <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
         <v>16</v>
@@ -2842,22 +2842,22 @@
         <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
         <v>700</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR13" t="n">
         <v>70</v>
@@ -2887,7 +2887,7 @@
         <v>175</v>
       </c>
       <c r="BA13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB13" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -932,7 +932,7 @@
         <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -977,7 +977,7 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
@@ -986,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
@@ -1034,7 +1034,7 @@
         <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>4.75</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
@@ -1129,10 +1129,10 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1511,28 +1511,28 @@
         <v>1.93</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1553,7 +1553,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -1562,16 +1562,16 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN6" t="n">
         <v>4.75</v>
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
@@ -1601,13 +1601,13 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
         <v>2.77</v>
@@ -1672,19 +1672,19 @@
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="O7" t="n">
         <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q7" t="n">
         <v>2.1</v>
@@ -1699,10 +1699,10 @@
         <v>2.47</v>
       </c>
       <c r="U7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>6.7</v>
@@ -1711,7 +1711,7 @@
         <v>10.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z7" t="n">
         <v>22</v>
@@ -1726,25 +1726,25 @@
         <v>7.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
         <v>11.75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK7" t="n">
         <v>35</v>
@@ -1762,7 +1762,7 @@
         <v>11.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>45</v>
@@ -1774,31 +1774,31 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
         <v>100</v>
       </c>
       <c r="BA7" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -2209,7 +2209,7 @@
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -935,7 +935,7 @@
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -986,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
@@ -1034,7 +1034,7 @@
         <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>4.75</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
@@ -1129,16 +1129,16 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1153,10 +1153,10 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
         <v>5</v>
@@ -1165,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1189,7 +1189,7 @@
         <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH4" t="n">
         <v>23</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1660,19 +1660,19 @@
         <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J7" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1684,7 +1684,7 @@
         <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q7" t="n">
         <v>2.1</v>
@@ -1696,37 +1696,37 @@
         <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
         <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="X7" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE7" t="n">
         <v>14.5</v>
@@ -1735,49 +1735,49 @@
         <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR7" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
@@ -1786,13 +1786,13 @@
         <v>5.2</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA7" t="n">
         <v>120</v>
@@ -1857,10 +1857,10 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
         <v>2.32</v>
@@ -2788,7 +2788,7 @@
         <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U13" t="n">
         <v>1.98</v>
@@ -2797,10 +2797,10 @@
         <v>1.65</v>
       </c>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X13" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
@@ -2809,28 +2809,28 @@
         <v>13.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB13" t="n">
         <v>35</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE13" t="n">
         <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
         <v>16</v>
@@ -2842,19 +2842,19 @@
         <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
         <v>700</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO13" t="n">
         <v>8.75</v>
       </c>
       <c r="AP13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>32</v>
@@ -2866,7 +2866,7 @@
         <v>300</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AU13" t="n">
         <v>7.7</v>
@@ -2887,7 +2887,7 @@
         <v>175</v>
       </c>
       <c r="BA13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB13" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1129,16 +1129,16 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1153,10 +1153,10 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
         <v>5</v>
@@ -1165,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1189,7 +1189,7 @@
         <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
         <v>23</v>
@@ -1657,100 +1657,100 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H7" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="K7" t="n">
         <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.95</v>
+        <v>6.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="X7" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
@@ -1759,22 +1759,22 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU7" t="n">
         <v>6.8</v>
@@ -1786,19 +1786,19 @@
         <v>5.2</v>
       </c>
       <c r="AX7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BA7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1869,10 +1869,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2767,10 +2767,10 @@
         <v>5.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
         <v>1.38</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -947,10 +947,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -1657,31 +1657,31 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
         <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.85</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
         <v>2.55</v>
@@ -1699,22 +1699,22 @@
         <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y7" t="n">
         <v>8.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
         <v>19.5</v>
@@ -1735,16 +1735,16 @@
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
         <v>37</v>
@@ -1753,22 +1753,22 @@
         <v>45</v>
       </c>
       <c r="AM7" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO7" t="n">
         <v>11.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>45</v>
       </c>
       <c r="AR7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
@@ -1777,19 +1777,19 @@
         <v>2.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX7" t="n">
         <v>20</v>
       </c>
       <c r="AY7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>110</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -1857,10 +1857,10 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1875,10 +1875,10 @@
         <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1956,7 +1956,7 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -2767,10 +2767,10 @@
         <v>5.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.38</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H7" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J7" t="n">
         <v>2.75</v>
@@ -1693,19 +1693,19 @@
         <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="U7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X7" t="n">
         <v>9.75</v>
@@ -1714,7 +1714,7 @@
         <v>8.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
         <v>19.5</v>
@@ -1735,10 +1735,10 @@
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
@@ -1753,7 +1753,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AN7" t="n">
         <v>3.95</v>
@@ -1777,10 +1777,10 @@
         <v>2.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW7" t="n">
         <v>5.3</v>
@@ -1789,16 +1789,16 @@
         <v>20</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA7" t="n">
         <v>150</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1869,10 +1869,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1890,13 +1890,13 @@
         <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
         <v>21</v>
@@ -1929,7 +1929,7 @@
         <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
@@ -1950,7 +1950,7 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
@@ -1971,7 +1971,7 @@
         <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I10" t="n">
         <v>3.5</v>
@@ -2215,7 +2215,7 @@
         <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L10" t="n">
         <v>4.33</v>
@@ -2415,10 +2415,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="K12" t="n">
         <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2597,10 +2597,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2618,7 +2618,7 @@
         <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
         <v>10</v>
@@ -2636,13 +2636,13 @@
         <v>9.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -2672,10 +2672,10 @@
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2690,7 +2690,7 @@
         <v>12</v>
       </c>
       <c r="AV12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW12" t="n">
         <v>11</v>
@@ -2937,7 +2937,7 @@
         <v>2.92</v>
       </c>
       <c r="I14" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J14" t="n">
         <v>3.5</v>
@@ -2958,7 +2958,7 @@
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Q14" t="n">
         <v>2.07</v>
@@ -2976,7 +2976,7 @@
         <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
         <v>8.25</v>
@@ -3006,10 +3006,10 @@
         <v>14</v>
       </c>
       <c r="AF14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AH14" t="n">
         <v>11.75</v>
@@ -3024,7 +3024,7 @@
         <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
         <v>600</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -765,10 +765,10 @@
         <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -798,22 +798,22 @@
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,10 +822,10 @@
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>351</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>
@@ -953,16 +953,16 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -2215,7 +2215,7 @@
         <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
         <v>4.33</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
@@ -2415,10 +2415,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2576,7 +2576,7 @@
         <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="K12" t="n">
         <v>2.4</v>
@@ -2597,10 +2597,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -765,16 +765,16 @@
         <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
         <v>3.1</v>
@@ -1129,10 +1129,10 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1302,19 +1302,19 @@
         <v>5.5</v>
       </c>
       <c r="J5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,16 +1335,16 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
@@ -1356,19 +1356,19 @@
         <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1389,10 +1389,10 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
         <v>8.5</v>
@@ -1434,7 +1434,7 @@
         <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
         <v>3.55</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="K7" t="n">
         <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1693,10 +1693,10 @@
         <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
@@ -1705,19 +1705,19 @@
         <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="X7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>8.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
@@ -1735,40 +1735,40 @@
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AN7" t="n">
         <v>3.95</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>45</v>
       </c>
       <c r="AR7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
@@ -1777,7 +1777,7 @@
         <v>2.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
@@ -1786,19 +1786,19 @@
         <v>5.3</v>
       </c>
       <c r="AX7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA7" t="n">
         <v>150</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1875,10 +1875,10 @@
         <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1890,13 +1890,13 @@
         <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>21</v>
@@ -1929,7 +1929,7 @@
         <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
@@ -1950,13 +1950,13 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -1971,7 +1971,7 @@
         <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
@@ -2057,7 +2057,7 @@
         <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T9" t="n">
         <v>2.5</v>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
         <v>3.5</v>
@@ -2400,7 +2400,7 @@
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2436,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2454,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2466,16 +2466,16 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>34</v>
@@ -2484,10 +2484,10 @@
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2520,13 +2520,13 @@
         <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="H12" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2597,10 +2597,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2609,22 +2609,22 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
         <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2636,31 +2636,31 @@
         <v>9.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
         <v>151</v>
       </c>
       <c r="AK12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="n">
         <v>201</v>
@@ -2672,10 +2672,10 @@
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2687,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
         <v>11</v>
@@ -2702,7 +2702,7 @@
         <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA12" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -771,10 +771,10 @@
         <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
         <v>3.1</v>
@@ -1135,10 +1135,10 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1153,10 +1153,10 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
         <v>5</v>
@@ -1165,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1189,7 +1189,7 @@
         <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH4" t="n">
         <v>23</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.2</v>
@@ -1344,19 +1344,19 @@
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
@@ -1371,16 +1371,16 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1389,13 +1389,13 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H7" t="n">
         <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="K7" t="n">
         <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1681,7 +1681,7 @@
         <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
         <v>2.55</v>
@@ -1705,22 +1705,22 @@
         <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="n">
         <v>7.2</v>
@@ -1735,40 +1735,40 @@
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM7" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>45</v>
       </c>
       <c r="AR7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
@@ -1786,19 +1786,19 @@
         <v>5.3</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA7" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1875,7 +1875,7 @@
         <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
         <v>2.5</v>
@@ -2057,16 +2057,16 @@
         <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -2248,7 +2248,7 @@
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
@@ -2427,7 +2427,7 @@
         <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V11" t="n">
         <v>2</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>1.8</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2597,10 +2597,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2609,10 +2609,10 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
         <v>5.5</v>
@@ -2621,10 +2621,10 @@
         <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2645,22 +2645,22 @@
         <v>101</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
         <v>151</v>
       </c>
       <c r="AK12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM12" t="n">
         <v>201</v>
@@ -2687,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV12" t="n">
         <v>81</v>
@@ -2702,7 +2702,7 @@
         <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA12" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1129,10 +1129,10 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -1311,10 +1311,10 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1526,13 +1526,13 @@
         <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1562,10 +1562,10 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1601,10 +1601,10 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -1869,10 +1869,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2063,10 +2063,10 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -2218,7 +2218,7 @@
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.14</v>
@@ -2227,16 +2227,16 @@
         <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
         <v>1.62</v>
@@ -2248,7 +2248,7 @@
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
@@ -2281,13 +2281,13 @@
         <v>81</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -2314,7 +2314,7 @@
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>
@@ -2427,7 +2427,7 @@
         <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
         <v>2</v>
@@ -2609,10 +2609,10 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
         <v>5.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -753,22 +753,22 @@
         <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -795,7 +795,7 @@
         <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>9</v>
@@ -816,13 +816,13 @@
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>7.5</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1365,7 +1365,7 @@
         <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
@@ -1377,7 +1377,7 @@
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
         <v>67</v>
@@ -1386,7 +1386,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
         <v>351</v>
@@ -1425,16 +1425,16 @@
         <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1660,16 +1660,16 @@
         <v>2.18</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I7" t="n">
         <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="K7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
         <v>3.95</v>
@@ -1681,10 +1681,10 @@
         <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Q7" t="n">
         <v>2.15</v>
@@ -1705,7 +1705,7 @@
         <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X7" t="n">
         <v>9.75</v>
@@ -1717,19 +1717,19 @@
         <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>35</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD7" t="n">
         <v>5.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
         <v>80</v>
@@ -1750,7 +1750,7 @@
         <v>35</v>
       </c>
       <c r="AL7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
@@ -1765,10 +1765,10 @@
         <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2069,31 +2069,31 @@
         <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2102,25 +2102,25 @@
         <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK9" t="n">
         <v>29</v>
       </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
         <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
@@ -2144,7 +2144,7 @@
         <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
         <v>4.75</v>
@@ -2162,7 +2162,7 @@
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
         <v>1.8</v>
@@ -2582,7 +2582,7 @@
         <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2609,10 +2609,10 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
         <v>5.5</v>
@@ -2621,10 +2621,10 @@
         <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2633,7 +2633,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>10</v>
@@ -2645,28 +2645,28 @@
         <v>101</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
         <v>151</v>
       </c>
       <c r="AK12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="n">
         <v>201</v>
       </c>
       <c r="AN12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO12" t="n">
         <v>6</v>
@@ -2678,7 +2678,7 @@
         <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
         <v>201</v>
@@ -2687,13 +2687,13 @@
         <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
         <v>51</v>
@@ -2702,10 +2702,10 @@
         <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB12" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -765,10 +765,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -2021,31 +2021,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
         <v>2.75</v>
@@ -2069,7 +2069,7 @@
         <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
@@ -2087,13 +2087,13 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2102,16 +2102,16 @@
         <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2162,7 +2162,7 @@
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -2218,25 +2218,25 @@
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
         <v>1.62</v>
@@ -2281,13 +2281,13 @@
         <v>81</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -2314,7 +2314,7 @@
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>
@@ -2403,22 +2403,22 @@
         <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2931,19 +2931,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I14" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>3.05</v>
@@ -2958,7 +2958,7 @@
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Q14" t="n">
         <v>2.07</v>
@@ -2967,34 +2967,34 @@
         <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="U14" t="n">
         <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
         <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA14" t="n">
         <v>27</v>
       </c>
       <c r="AB14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="n">
         <v>7.7</v>
@@ -3009,67 +3009,67 @@
         <v>70</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AH14" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI14" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
         <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM14" t="n">
         <v>600</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AO14" t="n">
         <v>16</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ14" t="n">
         <v>75</v>
       </c>
       <c r="AR14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS14" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV14" t="n">
         <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AX14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB14" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
@@ -1129,10 +1129,10 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -1162,10 +1162,10 @@
         <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
@@ -1183,25 +1183,25 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1237,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>29</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1493,10 +1493,10 @@
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1660,10 +1660,10 @@
         <v>2.18</v>
       </c>
       <c r="H7" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J7" t="n">
         <v>2.8</v>
@@ -1672,7 +1672,7 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1696,7 +1696,7 @@
         <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
@@ -1717,7 +1717,7 @@
         <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>7.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE7" t="n">
         <v>14.5</v>
@@ -1735,10 +1735,10 @@
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
@@ -1750,13 +1750,13 @@
         <v>35</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO7" t="n">
         <v>11.5</v>
@@ -1774,7 +1774,7 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AU7" t="n">
         <v>6.8</v>
@@ -1786,7 +1786,7 @@
         <v>5.3</v>
       </c>
       <c r="AX7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AY7" t="n">
         <v>25</v>
@@ -2039,13 +2039,13 @@
         <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
         <v>2.75</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.57</v>
@@ -2263,7 +2263,7 @@
         <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2287,10 +2287,10 @@
         <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
         <v>34</v>
@@ -2308,7 +2308,7 @@
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2427,22 +2427,22 @@
         <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>17</v>
@@ -2451,7 +2451,7 @@
         <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2460,34 +2460,34 @@
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2514,19 +2514,19 @@
         <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
@@ -2934,34 +2934,34 @@
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I14" t="n">
         <v>2.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6.95</v>
+        <v>7.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
         <v>1.6</v>
@@ -2973,10 +2973,10 @@
         <v>2.47</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="W14" t="n">
         <v>8.5</v>
@@ -2991,13 +2991,13 @@
         <v>40</v>
       </c>
       <c r="AA14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
         <v>5.7</v>
@@ -3009,52 +3009,52 @@
         <v>70</v>
       </c>
       <c r="AG14" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AH14" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AJ14" t="n">
         <v>26</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
         <v>600</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW14" t="n">
         <v>4.25</v>
@@ -3063,16 +3063,16 @@
         <v>13</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ14" t="n">
         <v>55</v>
       </c>
       <c r="BA14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB14" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -765,10 +765,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -798,7 +798,7 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.75</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.8</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
@@ -1129,16 +1129,16 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1311,13 +1311,13 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
         <v>3.5</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1493,13 +1493,13 @@
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
         <v>3.75</v>
@@ -1511,19 +1511,19 @@
         <v>2.03</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1538,22 +1538,22 @@
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -1568,10 +1568,10 @@
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN6" t="n">
         <v>4.75</v>
@@ -1580,19 +1580,19 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
@@ -1607,13 +1607,13 @@
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
         <v>151</v>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I10" t="n">
         <v>3.4</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
@@ -2761,10 +2761,10 @@
         <v>2.32</v>
       </c>
       <c r="K13" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2785,10 +2785,10 @@
         <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T13" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="U13" t="n">
         <v>1.98</v>
@@ -2797,22 +2797,22 @@
         <v>1.65</v>
       </c>
       <c r="W13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA13" t="n">
         <v>15.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
         <v>7.6</v>
@@ -2824,7 +2824,7 @@
         <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG13" t="n">
         <v>10.75</v>
@@ -2851,25 +2851,25 @@
         <v>3.45</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS13" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV13" t="n">
         <v>80</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
         <v>3.7</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
@@ -1129,16 +1129,16 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1293,40 +1293,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1344,19 +1344,19 @@
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
@@ -1365,37 +1365,37 @@
         <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1425,16 +1425,16 @@
         <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA5" t="n">
         <v>126</v>
       </c>
-      <c r="BA5" t="n">
-        <v>151</v>
-      </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1475,40 +1475,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1517,13 +1517,13 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1535,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1556,19 +1556,19 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>151</v>
@@ -1577,7 +1577,7 @@
         <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -1607,13 +1607,13 @@
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
         <v>151</v>
@@ -1657,40 +1657,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I7" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1699,28 +1699,28 @@
         <v>2.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X7" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA7" t="n">
         <v>22</v>
       </c>
-      <c r="AA7" t="n">
-        <v>20</v>
-      </c>
       <c r="AB7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="n">
         <v>7.1</v>
@@ -1735,43 +1735,43 @@
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AK7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT7" t="n">
         <v>2.37</v>
@@ -1783,16 +1783,16 @@
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA7" t="n">
         <v>120</v>
@@ -2206,7 +2206,7 @@
         <v>2.45</v>
       </c>
       <c r="H10" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
         <v>3.4</v>
@@ -2215,7 +2215,7 @@
         <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
@@ -2227,16 +2227,16 @@
         <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
         <v>1.62</v>
@@ -2278,7 +2278,7 @@
         <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
         <v>7.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -2409,16 +2409,16 @@
         <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>1.8</v>
@@ -2582,7 +2582,7 @@
         <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2609,10 +2609,10 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
         <v>5.5</v>
@@ -2624,7 +2624,7 @@
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2633,7 +2633,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
         <v>10</v>
@@ -2645,19 +2645,19 @@
         <v>101</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
         <v>151</v>
       </c>
       <c r="AK12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL12" t="n">
         <v>81</v>
@@ -2666,7 +2666,7 @@
         <v>201</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO12" t="n">
         <v>6</v>
@@ -2693,7 +2693,7 @@
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX12" t="n">
         <v>51</v>
@@ -2702,10 +2702,10 @@
         <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB12" t="n">
         <v>501</v>
@@ -2767,10 +2767,10 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>7.1</v>
+        <v>6.95</v>
       </c>
       <c r="O13" t="n">
         <v>1.38</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
@@ -1129,22 +1129,22 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1177,16 +1177,16 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
         <v>9</v>
@@ -1246,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
@@ -2752,16 +2752,16 @@
         <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="J13" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
@@ -2785,22 +2785,22 @@
         <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X13" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Y13" t="n">
         <v>8.25</v>
@@ -2809,28 +2809,28 @@
         <v>14</v>
       </c>
       <c r="AA13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC13" t="n">
         <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF13" t="n">
         <v>100</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
         <v>16</v>
@@ -2842,37 +2842,37 @@
         <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AN13" t="n">
         <v>3.45</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT13" t="n">
         <v>2.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW13" t="n">
         <v>6.3</v>
@@ -2881,16 +2881,16 @@
         <v>28</v>
       </c>
       <c r="AY13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ13" t="n">
         <v>175</v>
       </c>
       <c r="BA13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB13" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -765,10 +765,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -798,7 +798,7 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -1660,10 +1660,10 @@
         <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
         <v>2.95</v>
@@ -1672,43 +1672,43 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.7</v>
+        <v>6.65</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T7" t="n">
         <v>2.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X7" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9.25</v>
@@ -1720,7 +1720,7 @@
         <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="n">
         <v>7.1</v>
@@ -1732,22 +1732,22 @@
         <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
         <v>11.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
         <v>40</v>
@@ -1768,25 +1768,25 @@
         <v>55</v>
       </c>
       <c r="AR7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
         <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY7" t="n">
         <v>24</v>
@@ -1857,13 +1857,13 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2931,19 +2931,19 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.92</v>
       </c>
       <c r="I14" t="n">
         <v>2.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L14" t="n">
         <v>3</v>
@@ -2958,7 +2958,7 @@
         <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Q14" t="n">
         <v>2.05</v>
@@ -2967,31 +2967,31 @@
         <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
         <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB14" t="n">
         <v>37</v>
@@ -3000,7 +3000,7 @@
         <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE14" t="n">
         <v>14</v>
@@ -3009,10 +3009,10 @@
         <v>70</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AH14" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI14" t="n">
         <v>9.25</v>
@@ -3021,7 +3021,7 @@
         <v>26</v>
       </c>
       <c r="AK14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
         <v>32</v>
@@ -3030,16 +3030,16 @@
         <v>600</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR14" t="n">
         <v>110</v>
@@ -3051,16 +3051,16 @@
         <v>2.45</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW14" t="n">
         <v>4.25</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY14" t="n">
         <v>20</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.14</v>
@@ -771,40 +771,40 @@
         <v>5.5</v>
       </c>
       <c r="O2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.62</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -813,13 +813,13 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
         <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -828,16 +828,16 @@
         <v>7.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,7 +846,7 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -864,28 +864,28 @@
         <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -1141,10 +1141,10 @@
         <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J7" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1693,13 +1693,13 @@
         <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
         <v>2.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
         <v>1.78</v>
@@ -1708,31 +1708,31 @@
         <v>6.4</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>35</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
         <v>8.75</v>
@@ -1741,7 +1741,7 @@
         <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AJ7" t="n">
         <v>50</v>
@@ -1750,22 +1750,22 @@
         <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR7" t="n">
         <v>90</v>
@@ -1774,31 +1774,31 @@
         <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AV7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW7" t="n">
         <v>5.1</v>
       </c>
       <c r="AX7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA7" t="n">
         <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -1857,28 +1857,28 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1956,7 +1956,7 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -2755,16 +2755,16 @@
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K13" t="n">
         <v>2.02</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2776,10 +2776,10 @@
         <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
         <v>1.57</v>
@@ -2791,10 +2791,10 @@
         <v>2.42</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W13" t="n">
         <v>5.6</v>
@@ -2815,7 +2815,7 @@
         <v>35</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6.3</v>
@@ -2827,7 +2827,7 @@
         <v>100</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH13" t="n">
         <v>28</v>
@@ -2836,7 +2836,7 @@
         <v>16</v>
       </c>
       <c r="AJ13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
         <v>55</v>
@@ -2854,7 +2854,7 @@
         <v>8.75</v>
       </c>
       <c r="AP13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
         <v>32</v>
@@ -2875,22 +2875,22 @@
         <v>75</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AX13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ13" t="n">
         <v>175</v>
       </c>
       <c r="BA13" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB13" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -747,64 +747,64 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W2" t="n">
         <v>5.5</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6</v>
-      </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -813,13 +813,13 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
         <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -828,16 +828,16 @@
         <v>7.5</v>
       </c>
       <c r="AH2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="n">
         <v>15</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,7 +846,7 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -864,10 +864,10 @@
         <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -876,16 +876,16 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -983,13 +983,13 @@
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1001,7 +1001,7 @@
         <v>5.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1010,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
@@ -1034,7 +1034,7 @@
         <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1052,10 +1052,10 @@
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
         <v>17</v>
@@ -1666,13 +1666,13 @@
         <v>3.35</v>
       </c>
       <c r="J7" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1699,19 +1699,19 @@
         <v>2.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X7" t="n">
         <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z7" t="n">
         <v>23</v>
@@ -1741,7 +1741,7 @@
         <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>50</v>
@@ -1750,7 +1750,7 @@
         <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
@@ -1777,7 +1777,7 @@
         <v>2.37</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV7" t="n">
         <v>65</v>
@@ -1789,16 +1789,16 @@
         <v>18.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA7" t="n">
         <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
@@ -1875,10 +1875,10 @@
         <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1920,7 +1920,7 @@
         <v>8.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -1932,13 +1932,13 @@
         <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
@@ -1956,7 +1956,7 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -2591,16 +2591,16 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2749,145 +2749,145 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="K13" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L13" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>6.95</v>
+        <v>7.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T13" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
         <v>5.6</v>
       </c>
       <c r="X13" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="Y13" t="n">
         <v>8.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AB13" t="n">
         <v>35</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AE13" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="n">
         <v>11.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI13" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
         <v>900</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS13" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
         <v>2.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV13" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AX13" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AY13" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AZ13" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BA13" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="BB13" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -947,10 +947,10 @@
         <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -1666,25 +1666,25 @@
         <v>3.35</v>
       </c>
       <c r="J7" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.65</v>
+        <v>6.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q7" t="n">
         <v>2.15</v>
@@ -1696,28 +1696,28 @@
         <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
         <v>35</v>
@@ -1735,13 +1735,13 @@
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ7" t="n">
         <v>50</v>
@@ -1750,7 +1750,7 @@
         <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
@@ -1759,28 +1759,28 @@
         <v>4.05</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>50</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AU7" t="n">
         <v>6.8</v>
       </c>
       <c r="AV7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW7" t="n">
         <v>5.1</v>
@@ -1789,10 +1789,10 @@
         <v>18.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA7" t="n">
         <v>120</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1890,16 +1890,16 @@
         <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA8" t="n">
         <v>23</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>21</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1917,10 +1917,10 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -1929,16 +1929,16 @@
         <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
@@ -1950,7 +1950,7 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
@@ -2567,19 +2567,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
         <v>1.8</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
@@ -2597,16 +2597,16 @@
         <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
         <v>2.63</v>
@@ -2621,10 +2621,10 @@
         <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2633,10 +2633,10 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>29</v>
@@ -2645,7 +2645,7 @@
         <v>101</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
@@ -2657,7 +2657,7 @@
         <v>151</v>
       </c>
       <c r="AK12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="n">
         <v>81</v>
@@ -2672,19 +2672,19 @@
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
         <v>11</v>
@@ -2693,7 +2693,7 @@
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
         <v>51</v>
@@ -2702,7 +2702,7 @@
         <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA12" t="n">
         <v>351</v>
@@ -2767,10 +2767,10 @@
         <v>5.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>7.1</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="O13" t="n">
         <v>1.38</v>
@@ -2934,31 +2934,31 @@
         <v>2.95</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Q14" t="n">
         <v>2.05</v>
@@ -2967,10 +2967,10 @@
         <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U14" t="n">
         <v>1.78</v>
@@ -2979,7 +2979,7 @@
         <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
@@ -2991,13 +2991,13 @@
         <v>37</v>
       </c>
       <c r="AA14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD14" t="n">
         <v>5.8</v>
@@ -3009,13 +3009,13 @@
         <v>70</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>11.25</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>26</v>
@@ -3024,7 +3024,7 @@
         <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM14" t="n">
         <v>600</v>
@@ -3033,19 +3033,19 @@
         <v>4.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP14" t="n">
         <v>22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS14" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT14" t="n">
         <v>2.45</v>
@@ -3057,22 +3057,22 @@
         <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AX14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -947,10 +947,10 @@
         <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -1660,31 +1660,31 @@
         <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Q7" t="n">
         <v>2.15</v>
@@ -1699,16 +1699,16 @@
         <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
         <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="X7" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1717,37 +1717,37 @@
         <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AL7" t="n">
         <v>45</v>
@@ -1759,16 +1759,16 @@
         <v>4.05</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
@@ -1777,28 +1777,28 @@
         <v>2.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX7" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1887,22 +1887,22 @@
         <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
         <v>26</v>
       </c>
-      <c r="AA8" t="n">
-        <v>23</v>
-      </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1917,19 +1917,19 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
@@ -1938,13 +1938,13 @@
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1965,19 +1965,19 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
         <v>201</v>
@@ -2964,19 +2964,19 @@
         <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W14" t="n">
         <v>8.5</v>
@@ -3009,7 +3009,7 @@
         <v>70</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AH14" t="n">
         <v>11.25</v>
@@ -3048,13 +3048,13 @@
         <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU14" t="n">
         <v>6.7</v>
       </c>
       <c r="AV14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW14" t="n">
         <v>4.3</v>
@@ -3066,13 +3066,13 @@
         <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB14" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1660,19 +1660,19 @@
         <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J7" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1681,10 +1681,10 @@
         <v>6.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q7" t="n">
         <v>2.15</v>
@@ -1696,7 +1696,7 @@
         <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U7" t="n">
         <v>1.82</v>
@@ -1705,10 +1705,10 @@
         <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1717,13 +1717,13 @@
         <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AD7" t="n">
         <v>5.6</v>
@@ -1732,25 +1732,25 @@
         <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
@@ -1759,46 +1759,46 @@
         <v>4.05</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR7" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AX7" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ7" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BA7" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -2940,7 +2940,7 @@
         <v>2.42</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
@@ -2964,13 +2964,13 @@
         <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U14" t="n">
         <v>1.75</v>
@@ -2979,16 +2979,16 @@
         <v>1.85</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
         <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA14" t="n">
         <v>26</v>
@@ -2997,10 +2997,10 @@
         <v>35</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE14" t="n">
         <v>14</v>
@@ -3009,7 +3009,7 @@
         <v>70</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>11.25</v>
@@ -3030,13 +3030,13 @@
         <v>600</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AO14" t="n">
         <v>15.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
         <v>70</v>
@@ -3048,10 +3048,10 @@
         <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV14" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -965,10 +965,10 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -977,10 +977,10 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -1001,13 +1001,13 @@
         <v>5.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH3" t="n">
         <v>12</v>
@@ -1028,28 +1028,28 @@
         <v>1250</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
         <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1111,34 +1111,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1153,31 +1153,31 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1189,31 +1189,31 @@
         <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
         <v>900</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1222,7 +1222,7 @@
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
         <v>301</v>
@@ -1237,19 +1237,19 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1660,16 +1660,16 @@
         <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
         <v>3.35</v>
       </c>
       <c r="J7" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L7" t="n">
         <v>3.8</v>
@@ -1678,7 +1678,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.75</v>
+        <v>6.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.39</v>
@@ -1696,19 +1696,19 @@
         <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
         <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1723,22 +1723,22 @@
         <v>35</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE7" t="n">
         <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
         <v>11.5</v>
@@ -1762,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>50</v>
@@ -1771,10 +1771,10 @@
         <v>90</v>
       </c>
       <c r="AS7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AU7" t="n">
         <v>6.8</v>
@@ -2931,145 +2931,145 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>7.2</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="W14" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB14" t="n">
         <v>40</v>
       </c>
-      <c r="AA14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>35</v>
-      </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AH14" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
         <v>600</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ14" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AR14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AV14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ14" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BA14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB14" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-11.xlsx
@@ -1147,10 +1147,10 @@
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
         <v>2.5</v>
@@ -1192,13 +1192,13 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1228,7 +1228,7 @@
         <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1246,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
         <v>201</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
         <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J7" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
         <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.39</v>
@@ -1687,10 +1687,10 @@
         <v>2.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1699,28 +1699,28 @@
         <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
         <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="X7" t="n">
         <v>10.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
         <v>7.2</v>
@@ -1729,46 +1729,46 @@
         <v>5.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH7" t="n">
         <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
@@ -1783,22 +1783,22 @@
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX7" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BA7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
